--- a/130-grammar/520-project-me/xh-cm/key/gs.xlsx
+++ b/130-grammar/520-project-me/xh-cm/key/gs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="853">
   <si>
     <t>AC2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,2514 @@
   </si>
   <si>
     <t>cfb_elec_cont_run_status</t>
+  </si>
+  <si>
+    <t>cust_no</t>
+  </si>
+  <si>
+    <t>customer number</t>
+  </si>
+  <si>
+    <t>cust_sign_info</t>
+  </si>
+  <si>
+    <t>customer signature information</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>create date</t>
+  </si>
+  <si>
+    <t>create_teller</t>
+  </si>
+  <si>
+    <t>create teller</t>
+  </si>
+  <si>
+    <t>agent_doc_type</t>
+  </si>
+  <si>
+    <t>agent document type</t>
+  </si>
+  <si>
+    <t>agent_doc_no</t>
+  </si>
+  <si>
+    <t>agent document number</t>
+  </si>
+  <si>
+    <t>agent_name</t>
+  </si>
+  <si>
+    <t>agent name</t>
+  </si>
+  <si>
+    <t>agent_country</t>
+  </si>
+  <si>
+    <t>agent country</t>
+  </si>
+  <si>
+    <t>agent_phone</t>
+  </si>
+  <si>
+    <t>agent phone</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>serial_no</t>
+  </si>
+  <si>
+    <t>serial no</t>
+  </si>
+  <si>
+    <t>cust_name</t>
+  </si>
+  <si>
+    <t>customer name</t>
+  </si>
+  <si>
+    <t>cust_name_type</t>
+  </si>
+  <si>
+    <t>customer name type</t>
+  </si>
+  <si>
+    <t>org_id</t>
+  </si>
+  <si>
+    <t>organization id</t>
+  </si>
+  <si>
+    <t>data_create_time</t>
+  </si>
+  <si>
+    <t>data create time</t>
+  </si>
+  <si>
+    <t>data_update_time</t>
+  </si>
+  <si>
+    <t>data update time</t>
+  </si>
+  <si>
+    <t>data_create_user</t>
+  </si>
+  <si>
+    <t>data create user</t>
+  </si>
+  <si>
+    <t>data_update_user</t>
+  </si>
+  <si>
+    <t>data update user</t>
+  </si>
+  <si>
+    <t>data_version</t>
+  </si>
+  <si>
+    <t>data version</t>
+  </si>
+  <si>
+    <t>100000000101</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>cwd</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>20200831 10:30:46 445</t>
+  </si>
+  <si>
+    <t>20200831 10:47:25 835</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>superman</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>20200831 10:47:25 840</t>
+  </si>
+  <si>
+    <t>100000000102</t>
+  </si>
+  <si>
+    <t>20200831 10:49:32 440</t>
+  </si>
+  <si>
+    <t>20200831 10:53:09 840</t>
+  </si>
+  <si>
+    <t>20200831 10:53:09 844</t>
+  </si>
+  <si>
+    <t>100000000103</t>
+  </si>
+  <si>
+    <t>20200831 10:56:53 309</t>
+  </si>
+  <si>
+    <t>100000000104</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>20200831 11:02:55 187</t>
+  </si>
+  <si>
+    <t>20200831 14:02:44 779</t>
+  </si>
+  <si>
+    <t>20200831 14:02:44 783</t>
+  </si>
+  <si>
+    <t>100000000105</t>
+  </si>
+  <si>
+    <t>Jimmy RSqGMH</t>
+  </si>
+  <si>
+    <t>20200831 11:18:55 601</t>
+  </si>
+  <si>
+    <t>100000000106</t>
+  </si>
+  <si>
+    <t>hcj1000002</t>
+  </si>
+  <si>
+    <t>20200831 11:30:40 306</t>
+  </si>
+  <si>
+    <t>88880001</t>
+  </si>
+  <si>
+    <t>100000000107</t>
+  </si>
+  <si>
+    <t>Jimmy YiplqX</t>
+  </si>
+  <si>
+    <t>20200831 11:34:46 614</t>
+  </si>
+  <si>
+    <t>100000000108</t>
+  </si>
+  <si>
+    <t>Jimmy tlWFuP</t>
+  </si>
+  <si>
+    <t>20200831 11:45:10 697</t>
+  </si>
+  <si>
+    <t>100000000109</t>
+  </si>
+  <si>
+    <t>Jimmy KBMdKD</t>
+  </si>
+  <si>
+    <t>20200831 13:15:14 009</t>
+  </si>
+  <si>
+    <t>100000000110</t>
+  </si>
+  <si>
+    <t>Jimmy vlsdFf</t>
+  </si>
+  <si>
+    <t>20200831 13:20:22 894</t>
+  </si>
+  <si>
+    <t>100000000111</t>
+  </si>
+  <si>
+    <t>Jimmy YsfqqF</t>
+  </si>
+  <si>
+    <t>20200831 13:54:02 066</t>
+  </si>
+  <si>
+    <t>100000000201</t>
+  </si>
+  <si>
+    <t>Jimmy kJCdye</t>
+  </si>
+  <si>
+    <t>20200831 13:59:20 643</t>
+  </si>
+  <si>
+    <t>100000000202</t>
+  </si>
+  <si>
+    <t>20200831 15:42:23 963</t>
+  </si>
+  <si>
+    <t>100000000203</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>20200831 15:51:28 027</t>
+  </si>
+  <si>
+    <t>100000000204</t>
+  </si>
+  <si>
+    <t>Jimmy jCkEUR</t>
+  </si>
+  <si>
+    <t>20200831 15:52:17 256</t>
+  </si>
+  <si>
+    <t>100000000205</t>
+  </si>
+  <si>
+    <t>Jimmy ZmBMUr</t>
+  </si>
+  <si>
+    <t>20200831 17:02:14 614</t>
+  </si>
+  <si>
+    <t>100000000206</t>
+  </si>
+  <si>
+    <t>Jimmy cYgyMu</t>
+  </si>
+  <si>
+    <t>20200831 17:13:35 462</t>
+  </si>
+  <si>
+    <t>100000000207</t>
+  </si>
+  <si>
+    <t>Jimmy nmNhsp</t>
+  </si>
+  <si>
+    <t>20200831 17:15:32 448</t>
+  </si>
+  <si>
+    <t>100000000208</t>
+  </si>
+  <si>
+    <t>Jimmy wWZZFE</t>
+  </si>
+  <si>
+    <t>20200831 17:18:47 443</t>
+  </si>
+  <si>
+    <t>100000000209</t>
+  </si>
+  <si>
+    <t>Jimmy rVmvEA</t>
+  </si>
+  <si>
+    <t>20200831 17:20:44 438</t>
+  </si>
+  <si>
+    <t>100000000210</t>
+  </si>
+  <si>
+    <t>Jimmy JHePbe</t>
+  </si>
+  <si>
+    <t>20200831 17:21:44 405</t>
+  </si>
+  <si>
+    <t>100000000211</t>
+  </si>
+  <si>
+    <t>Jimmy QWgeDL</t>
+  </si>
+  <si>
+    <t>20200831 17:24:08 486</t>
+  </si>
+  <si>
+    <t>100000000212</t>
+  </si>
+  <si>
+    <t>Jimmy GPiezh</t>
+  </si>
+  <si>
+    <t>20200831 17:38:08 490</t>
+  </si>
+  <si>
+    <t>100000000213</t>
+  </si>
+  <si>
+    <t>Jimmy UxXPhN</t>
+  </si>
+  <si>
+    <t>20200901 09:45:08 682</t>
+  </si>
+  <si>
+    <t>100000000214</t>
+  </si>
+  <si>
+    <t>Jimmy gooOje</t>
+  </si>
+  <si>
+    <t>20200901 09:58:14 064</t>
+  </si>
+  <si>
+    <t>100000000215</t>
+  </si>
+  <si>
+    <t>Jimmy MHyYMK</t>
+  </si>
+  <si>
+    <t>20200901 09:59:59 189</t>
+  </si>
+  <si>
+    <t>100000000216</t>
+  </si>
+  <si>
+    <t>Jimmy iHhxqp</t>
+  </si>
+  <si>
+    <t>20200901 10:02:43 920</t>
+  </si>
+  <si>
+    <t>100000000217</t>
+  </si>
+  <si>
+    <t>Jimmy Zcxnaf</t>
+  </si>
+  <si>
+    <t>20200901 10:08:05 156</t>
+  </si>
+  <si>
+    <t>100000000218</t>
+  </si>
+  <si>
+    <t>Jimmy rGkRnE</t>
+  </si>
+  <si>
+    <t>20200901 10:09:55 975</t>
+  </si>
+  <si>
+    <t>100000000219</t>
+  </si>
+  <si>
+    <t>Jimmy ldFkJs</t>
+  </si>
+  <si>
+    <t>20200901 10:54:56 097</t>
+  </si>
+  <si>
+    <t>100000000220</t>
+  </si>
+  <si>
+    <t>ueylie t eandle732</t>
+  </si>
+  <si>
+    <t>20200901 11:26:44 168</t>
+  </si>
+  <si>
+    <t>100000000221</t>
+  </si>
+  <si>
+    <t>Jimmy fBKOly</t>
+  </si>
+  <si>
+    <t>20200901 11:27:17 231</t>
+  </si>
+  <si>
+    <t>100000000222</t>
+  </si>
+  <si>
+    <t>Jimmy Hsbycg</t>
+  </si>
+  <si>
+    <t>20200901 11:35:47 141</t>
+  </si>
+  <si>
+    <t>100000000223</t>
+  </si>
+  <si>
+    <t>weylie Y Xandle764</t>
+  </si>
+  <si>
+    <t>20200901 13:12:47 620</t>
+  </si>
+  <si>
+    <t>100000000224</t>
+  </si>
+  <si>
+    <t>Meylie l Aandle701</t>
+  </si>
+  <si>
+    <t>20200901 13:41:45 906</t>
+  </si>
+  <si>
+    <t>100000000225</t>
+  </si>
+  <si>
+    <t>Yeylie d Pandle634</t>
+  </si>
+  <si>
+    <t>20200901 13:46:44 663</t>
+  </si>
+  <si>
+    <t>100000000226</t>
+  </si>
+  <si>
+    <t>yeylie V fandle385</t>
+  </si>
+  <si>
+    <t>20200901 15:07:38 796</t>
+  </si>
+  <si>
+    <t>100000000301</t>
+  </si>
+  <si>
+    <t>Heylie j Uandle304</t>
+  </si>
+  <si>
+    <t>20200901 15:23:21 890</t>
+  </si>
+  <si>
+    <t>100000000302</t>
+  </si>
+  <si>
+    <t>hcj1000001</t>
+  </si>
+  <si>
+    <t>20200831 10:04:50 483</t>
+  </si>
+  <si>
+    <t>100000000303</t>
+  </si>
+  <si>
+    <t>Meylie B oandle111</t>
+  </si>
+  <si>
+    <t>20200901 15:43:00 228</t>
+  </si>
+  <si>
+    <t>20200901 15:43:00 229</t>
+  </si>
+  <si>
+    <t>100000000304</t>
+  </si>
+  <si>
+    <t>Zeylie U Wandle515</t>
+  </si>
+  <si>
+    <t>20200901 16:29:18 071</t>
+  </si>
+  <si>
+    <t>100000000305</t>
+  </si>
+  <si>
+    <t>Ieylie O vandle772</t>
+  </si>
+  <si>
+    <t>20200901 16:34:29 982</t>
+  </si>
+  <si>
+    <t>100000000306</t>
+  </si>
+  <si>
+    <t>Yeylie y Gandle527</t>
+  </si>
+  <si>
+    <t>20200901 16:44:57 019</t>
+  </si>
+  <si>
+    <t>100000000307</t>
+  </si>
+  <si>
+    <t>ceylie D Zandle810</t>
+  </si>
+  <si>
+    <t>20200901 16:52:09 062</t>
+  </si>
+  <si>
+    <t>100000000308</t>
+  </si>
+  <si>
+    <t>xeylie Z Dandle203</t>
+  </si>
+  <si>
+    <t>20200901 17:14:54 124</t>
+  </si>
+  <si>
+    <t>100000000401</t>
+  </si>
+  <si>
+    <t>Gldlm Jnhvpj</t>
+  </si>
+  <si>
+    <t>20200903 15:00:16 079</t>
+  </si>
+  <si>
+    <t>88881234</t>
+  </si>
+  <si>
+    <t>100000000402</t>
+  </si>
+  <si>
+    <t>Omsjh Xkoicx</t>
+  </si>
+  <si>
+    <t>20200903 15:02:06 755</t>
+  </si>
+  <si>
+    <t>20200903 15:02:06 756</t>
+  </si>
+  <si>
+    <t>100000000403</t>
+  </si>
+  <si>
+    <t>Zvndf Fryamd</t>
+  </si>
+  <si>
+    <t>20200903 15:03:54 617</t>
+  </si>
+  <si>
+    <t>100000000404</t>
+  </si>
+  <si>
+    <t>Wekrm Zqzvqj</t>
+  </si>
+  <si>
+    <t>20200903 15:05:18 668</t>
+  </si>
+  <si>
+    <t>100000000405</t>
+  </si>
+  <si>
+    <t>Ihaxj Urdjue</t>
+  </si>
+  <si>
+    <t>20200903 15:20:12 669</t>
+  </si>
+  <si>
+    <t>100000000406</t>
+  </si>
+  <si>
+    <t>Kwodr Volctp</t>
+  </si>
+  <si>
+    <t>20200903 15:25:36 747</t>
+  </si>
+  <si>
+    <t>100000000407</t>
+  </si>
+  <si>
+    <t>Awqgs Axzifw</t>
+  </si>
+  <si>
+    <t>20200903 15:28:39 686</t>
+  </si>
+  <si>
+    <t>100000000408</t>
+  </si>
+  <si>
+    <t>Ewavl Tqinrd</t>
+  </si>
+  <si>
+    <t>20200903 15:29:33 779</t>
+  </si>
+  <si>
+    <t>100000000409</t>
+  </si>
+  <si>
+    <t>Zoenx Bsfrmi</t>
+  </si>
+  <si>
+    <t>20200903 15:30:42 657</t>
+  </si>
+  <si>
+    <t>100000000410</t>
+  </si>
+  <si>
+    <t>Dzrho Uvylmv</t>
+  </si>
+  <si>
+    <t>20200903 15:32:12 761</t>
+  </si>
+  <si>
+    <t>100000000411</t>
+  </si>
+  <si>
+    <t>Poqrc Rbbhzy</t>
+  </si>
+  <si>
+    <t>20200903 15:33:36 662</t>
+  </si>
+  <si>
+    <t>100000000412</t>
+  </si>
+  <si>
+    <t>Grqad Qrgnjv</t>
+  </si>
+  <si>
+    <t>20200903 15:34:51 637</t>
+  </si>
+  <si>
+    <t>100000000413</t>
+  </si>
+  <si>
+    <t>Epchg Yfrkhr</t>
+  </si>
+  <si>
+    <t>20200903 15:36:42 704</t>
+  </si>
+  <si>
+    <t>100000000414</t>
+  </si>
+  <si>
+    <t>Vtonf Ijjjhr</t>
+  </si>
+  <si>
+    <t>20200903 15:41:06 674</t>
+  </si>
+  <si>
+    <t>100000000415</t>
+  </si>
+  <si>
+    <t>Rhzfg Irinil</t>
+  </si>
+  <si>
+    <t>20200903 15:42:18 669</t>
+  </si>
+  <si>
+    <t>100000000416</t>
+  </si>
+  <si>
+    <t>Twiyh Uinzwy</t>
+  </si>
+  <si>
+    <t>20200903 15:43:33 807</t>
+  </si>
+  <si>
+    <t>100000000417</t>
+  </si>
+  <si>
+    <t>Ocxtv Fhbwme</t>
+  </si>
+  <si>
+    <t>20200903 15:44:36 782</t>
+  </si>
+  <si>
+    <t>100000000418</t>
+  </si>
+  <si>
+    <t>Dnaip Efspbc</t>
+  </si>
+  <si>
+    <t>20200903 15:45:45 649</t>
+  </si>
+  <si>
+    <t>100000000419</t>
+  </si>
+  <si>
+    <t>Xoftv Bubzkz</t>
+  </si>
+  <si>
+    <t>20200903 15:48:45 713</t>
+  </si>
+  <si>
+    <t>100000000420</t>
+  </si>
+  <si>
+    <t>Sjtud Cfseqy</t>
+  </si>
+  <si>
+    <t>20200903 15:51:06 788</t>
+  </si>
+  <si>
+    <t>100000000421</t>
+  </si>
+  <si>
+    <t>Zdrkx Yyrgzs</t>
+  </si>
+  <si>
+    <t>20200903 15:52:18 776</t>
+  </si>
+  <si>
+    <t>100000000422</t>
+  </si>
+  <si>
+    <t>Uquqz Jiexhv</t>
+  </si>
+  <si>
+    <t>20200903 15:53:27 726</t>
+  </si>
+  <si>
+    <t>100000000423</t>
+  </si>
+  <si>
+    <t>Qxxvp Dymwei</t>
+  </si>
+  <si>
+    <t>20200903 15:56:15 728</t>
+  </si>
+  <si>
+    <t>100000000424</t>
+  </si>
+  <si>
+    <t>Cbytn Bgbptq</t>
+  </si>
+  <si>
+    <t>20200903 16:01:04 012</t>
+  </si>
+  <si>
+    <t>100000000425</t>
+  </si>
+  <si>
+    <t>Dlwac Rjaqis</t>
+  </si>
+  <si>
+    <t>20200903 16:02:21 738</t>
+  </si>
+  <si>
+    <t>100000000426</t>
+  </si>
+  <si>
+    <t>Vjqdn Hnjaoy</t>
+  </si>
+  <si>
+    <t>20200903 16:24:54 714</t>
+  </si>
+  <si>
+    <t>100000000427</t>
+  </si>
+  <si>
+    <t>Pivuk Kshmqn</t>
+  </si>
+  <si>
+    <t>20200903 16:25:39 764</t>
+  </si>
+  <si>
+    <t>100000000428</t>
+  </si>
+  <si>
+    <t>Xstyh Fjdcpy</t>
+  </si>
+  <si>
+    <t>20200903 16:25:54 824</t>
+  </si>
+  <si>
+    <t>100000000429</t>
+  </si>
+  <si>
+    <t>Fnrsa Enwpob</t>
+  </si>
+  <si>
+    <t>20200904 13:17:40 199</t>
+  </si>
+  <si>
+    <t>100000000430</t>
+  </si>
+  <si>
+    <t>Toklt Plsfwg</t>
+  </si>
+  <si>
+    <t>20200904 13:21:54 886</t>
+  </si>
+  <si>
+    <t>100000000431</t>
+  </si>
+  <si>
+    <t>Btkrl Gxljin</t>
+  </si>
+  <si>
+    <t>20200904 13:23:09 858</t>
+  </si>
+  <si>
+    <t>100000000432</t>
+  </si>
+  <si>
+    <t>Tvdvt Vlwgkv</t>
+  </si>
+  <si>
+    <t>20200904 13:26:09 999</t>
+  </si>
+  <si>
+    <t>100000000433</t>
+  </si>
+  <si>
+    <t>Cmbyt Fpbaxn</t>
+  </si>
+  <si>
+    <t>20200904 14:03:24 962</t>
+  </si>
+  <si>
+    <t>100000000434</t>
+  </si>
+  <si>
+    <t>Dcizv Xafhqg</t>
+  </si>
+  <si>
+    <t>20200904 14:06:04 049</t>
+  </si>
+  <si>
+    <t>100000000435</t>
+  </si>
+  <si>
+    <t>Jxvye Vhzhob</t>
+  </si>
+  <si>
+    <t>20200904 14:07:19 014</t>
+  </si>
+  <si>
+    <t>100000000436</t>
+  </si>
+  <si>
+    <t>Eqtwf Yzlspz</t>
+  </si>
+  <si>
+    <t>20200904 14:08:30 960</t>
+  </si>
+  <si>
+    <t>100000000437</t>
+  </si>
+  <si>
+    <t>Xnwfs Hjbbaj</t>
+  </si>
+  <si>
+    <t>20200904 14:10:18 925</t>
+  </si>
+  <si>
+    <t>100000000438</t>
+  </si>
+  <si>
+    <t>Rmtea Dmskio</t>
+  </si>
+  <si>
+    <t>20200904 14:11:12 895</t>
+  </si>
+  <si>
+    <t>100000000439</t>
+  </si>
+  <si>
+    <t>Ljcwz Qezvvb</t>
+  </si>
+  <si>
+    <t>20200904 14:12:42 953</t>
+  </si>
+  <si>
+    <t>100000000440</t>
+  </si>
+  <si>
+    <t>Bolnr Qeduun</t>
+  </si>
+  <si>
+    <t>20200904 14:14:33 970</t>
+  </si>
+  <si>
+    <t>100000000441</t>
+  </si>
+  <si>
+    <t>zyh</t>
+  </si>
+  <si>
+    <t>20200904 14:15:27 524</t>
+  </si>
+  <si>
+    <t>20200917 11:38:13 256</t>
+  </si>
+  <si>
+    <t>20200917 11:38:13 262</t>
+  </si>
+  <si>
+    <t>100000000442</t>
+  </si>
+  <si>
+    <t>Avuik Ovqarr</t>
+  </si>
+  <si>
+    <t>20200904 14:20:39 940</t>
+  </si>
+  <si>
+    <t>100000000443</t>
+  </si>
+  <si>
+    <t>Pgkiw Jvrjmc</t>
+  </si>
+  <si>
+    <t>20200904 14:23:18 920</t>
+  </si>
+  <si>
+    <t>100000000444</t>
+  </si>
+  <si>
+    <t>Drlqp Wcmkxo</t>
+  </si>
+  <si>
+    <t>20200904 14:41:58 006</t>
+  </si>
+  <si>
+    <t>100000000445</t>
+  </si>
+  <si>
+    <t>Ixuiz Jzgspx</t>
+  </si>
+  <si>
+    <t>20200904 14:43:31 116</t>
+  </si>
+  <si>
+    <t>100000000501</t>
+  </si>
+  <si>
+    <t>Hxeqh Iywqzz</t>
+  </si>
+  <si>
+    <t>20200904 14:57:47 169</t>
+  </si>
+  <si>
+    <t>100000000502</t>
+  </si>
+  <si>
+    <t>Phlma Lnlofs</t>
+  </si>
+  <si>
+    <t>20200904 14:58:40 223</t>
+  </si>
+  <si>
+    <t>100000000503</t>
+  </si>
+  <si>
+    <t>Tvygg Vqretv</t>
+  </si>
+  <si>
+    <t>20200904 15:01:55 064</t>
+  </si>
+  <si>
+    <t>100000000504</t>
+  </si>
+  <si>
+    <t>Crabm Ejdlou</t>
+  </si>
+  <si>
+    <t>20200904 15:07:34 141</t>
+  </si>
+  <si>
+    <t>100000000601</t>
+  </si>
+  <si>
+    <t>Jldzn Fygtpq</t>
+  </si>
+  <si>
+    <t>20200904 15:30:49 704</t>
+  </si>
+  <si>
+    <t>100000000602</t>
+  </si>
+  <si>
+    <t>Sphon Jgwvsn</t>
+  </si>
+  <si>
+    <t>20200904 15:38:55 159</t>
+  </si>
+  <si>
+    <t>corpor_id</t>
+  </si>
+  <si>
+    <t>corpor id</t>
+  </si>
+  <si>
+    <t>doc_type</t>
+  </si>
+  <si>
+    <t>identity document type</t>
+  </si>
+  <si>
+    <t>doc_no</t>
+  </si>
+  <si>
+    <t>document number</t>
+  </si>
+  <si>
+    <t>mobile_no</t>
+  </si>
+  <si>
+    <t>mobile no</t>
+  </si>
+  <si>
+    <t>operator_name</t>
+  </si>
+  <si>
+    <t>operator name</t>
+  </si>
+  <si>
+    <t>operator_doc_no</t>
+  </si>
+  <si>
+    <t>operator doc no</t>
+  </si>
+  <si>
+    <t>operator_mobile_no</t>
+  </si>
+  <si>
+    <t>operator mobile no</t>
+  </si>
+  <si>
+    <t>elec_contract_id</t>
+  </si>
+  <si>
+    <t>elec contract id</t>
+  </si>
+  <si>
+    <t>signature_id</t>
+  </si>
+  <si>
+    <t>signature id</t>
+  </si>
+  <si>
+    <t>signature_url</t>
+  </si>
+  <si>
+    <t>signature url</t>
+  </si>
+  <si>
+    <t>signature_image</t>
+  </si>
+  <si>
+    <t>signature image</t>
+  </si>
+  <si>
+    <t>agreement_id</t>
+  </si>
+  <si>
+    <t>agreement id</t>
+  </si>
+  <si>
+    <t>contract_no</t>
+  </si>
+  <si>
+    <t>contract no</t>
+  </si>
+  <si>
+    <t>apply_book_no</t>
+  </si>
+  <si>
+    <t>apply book no</t>
+  </si>
+  <si>
+    <t>trxn_date</t>
+  </si>
+  <si>
+    <t>transaction date</t>
+  </si>
+  <si>
+    <t>trxn_time</t>
+  </si>
+  <si>
+    <t>transaction time</t>
+  </si>
+  <si>
+    <t>elec_cont_no</t>
+  </si>
+  <si>
+    <t>elec cont no</t>
+  </si>
+  <si>
+    <t>fill_agreement_addr</t>
+  </si>
+  <si>
+    <t>fill agreement addr</t>
+  </si>
+  <si>
+    <t>sign_agreement_addr</t>
+  </si>
+  <si>
+    <t>sign agreement addr</t>
+  </si>
+  <si>
+    <t>contract_down_addr</t>
+  </si>
+  <si>
+    <t>contract down addr</t>
+  </si>
+  <si>
+    <t>run_status</t>
+  </si>
+  <si>
+    <t>run status</t>
+  </si>
+  <si>
+    <t>000000001201</t>
+  </si>
+  <si>
+    <t>000000000101</t>
+  </si>
+  <si>
+    <t>20191116</t>
+  </si>
+  <si>
+    <t>10:04:50</t>
+  </si>
+  <si>
+    <t>/home/file/file/template/000000001201.html</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>000000000201</t>
+  </si>
+  <si>
+    <t>10:30:45</t>
+  </si>
+  <si>
+    <t>000000001204</t>
+  </si>
+  <si>
+    <t>000000000202</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>10:47:41</t>
+  </si>
+  <si>
+    <t>/home/file/file/template/000000001204.html</t>
+  </si>
+  <si>
+    <t>000000000203</t>
+  </si>
+  <si>
+    <t>10:49:32</t>
+  </si>
+  <si>
+    <t>000000000204</t>
+  </si>
+  <si>
+    <t>20191117</t>
+  </si>
+  <si>
+    <t>10:53:26</t>
+  </si>
+  <si>
+    <t>000000000205</t>
+  </si>
+  <si>
+    <t>10:56:53</t>
+  </si>
+  <si>
+    <t>000000000206</t>
+  </si>
+  <si>
+    <t>11:00:25</t>
+  </si>
+  <si>
+    <t>000000000207</t>
+  </si>
+  <si>
+    <t>11:02:55</t>
+  </si>
+  <si>
+    <t>000000000208</t>
+  </si>
+  <si>
+    <t>11:30:40</t>
+  </si>
+  <si>
+    <t>000000000301</t>
+  </si>
+  <si>
+    <t>20191118</t>
+  </si>
+  <si>
+    <t>14:02:53</t>
+  </si>
+  <si>
+    <t>000000000302</t>
+  </si>
+  <si>
+    <t>15:42:23</t>
+  </si>
+  <si>
+    <t>000000000303</t>
+  </si>
+  <si>
+    <t>15:51:27</t>
+  </si>
+  <si>
+    <t>000000000304</t>
+  </si>
+  <si>
+    <t>15:54:58</t>
+  </si>
+  <si>
+    <t>000000000305</t>
+  </si>
+  <si>
+    <t>TR236889333284</t>
+  </si>
+  <si>
+    <t>20191205</t>
+  </si>
+  <si>
+    <t>15:07:44</t>
+  </si>
+  <si>
+    <t>TR706505414952</t>
+  </si>
+  <si>
+    <t>000000000401</t>
+  </si>
+  <si>
+    <t>TR543786917739</t>
+  </si>
+  <si>
+    <t>15:23:30</t>
+  </si>
+  <si>
+    <t>TR762331106105</t>
+  </si>
+  <si>
+    <t>000000000402</t>
+  </si>
+  <si>
+    <t>TR871719894441</t>
+  </si>
+  <si>
+    <t>15:43:05</t>
+  </si>
+  <si>
+    <t>TR734107504889</t>
+  </si>
+  <si>
+    <t>000000000403</t>
+  </si>
+  <si>
+    <t>TR839728443719</t>
+  </si>
+  <si>
+    <t>16:29:23</t>
+  </si>
+  <si>
+    <t>TR391271569490</t>
+  </si>
+  <si>
+    <t>000000000404</t>
+  </si>
+  <si>
+    <t>TR750588260218</t>
+  </si>
+  <si>
+    <t>16:34:33</t>
+  </si>
+  <si>
+    <t>TR973779429668</t>
+  </si>
+  <si>
+    <t>000000000405</t>
+  </si>
+  <si>
+    <t>TR048611169668</t>
+  </si>
+  <si>
+    <t>16:45:01</t>
+  </si>
+  <si>
+    <t>TR931083643346</t>
+  </si>
+  <si>
+    <t>000000000406</t>
+  </si>
+  <si>
+    <t>TR700686950981</t>
+  </si>
+  <si>
+    <t>16:52:13</t>
+  </si>
+  <si>
+    <t>TR292181785003</t>
+  </si>
+  <si>
+    <t>000000000407</t>
+  </si>
+  <si>
+    <t>TR825073517095</t>
+  </si>
+  <si>
+    <t>17:14:57</t>
+  </si>
+  <si>
+    <t>TR417140071032</t>
+  </si>
+  <si>
+    <t>000000000501</t>
+  </si>
+  <si>
+    <t>20191120</t>
+  </si>
+  <si>
+    <t>14:15:27</t>
+  </si>
+  <si>
+    <t>100000001101</t>
+  </si>
+  <si>
+    <t>000000000601</t>
+  </si>
+  <si>
+    <t>20191122</t>
+  </si>
+  <si>
+    <t>10:15:09</t>
+  </si>
+  <si>
+    <t>100000001201</t>
+  </si>
+  <si>
+    <t>000000000701</t>
+  </si>
+  <si>
+    <t>10:34:18</t>
+  </si>
+  <si>
+    <t>100000001202</t>
+  </si>
+  <si>
+    <t>000000000702</t>
+  </si>
+  <si>
+    <t>10:54:33</t>
+  </si>
+  <si>
+    <t>100000001801</t>
+  </si>
+  <si>
+    <t>000000000801</t>
+  </si>
+  <si>
+    <t>TR782040156312</t>
+  </si>
+  <si>
+    <t>15:19:38</t>
+  </si>
+  <si>
+    <t>TR970160652880</t>
+  </si>
+  <si>
+    <t>100000001802</t>
+  </si>
+  <si>
+    <t>000000000802</t>
+  </si>
+  <si>
+    <t>TR721508452015</t>
+  </si>
+  <si>
+    <t>15:20:46</t>
+  </si>
+  <si>
+    <t>TR338503546152</t>
+  </si>
+  <si>
+    <t>100000001803</t>
+  </si>
+  <si>
+    <t>000000000803</t>
+  </si>
+  <si>
+    <t>TR561550549057</t>
+  </si>
+  <si>
+    <t>15:23:11</t>
+  </si>
+  <si>
+    <t>TR204132329508</t>
+  </si>
+  <si>
+    <t>100000001804</t>
+  </si>
+  <si>
+    <t>000000000804</t>
+  </si>
+  <si>
+    <t>20191124</t>
+  </si>
+  <si>
+    <t>09:44:26</t>
+  </si>
+  <si>
+    <t>100000001805</t>
+  </si>
+  <si>
+    <t>000000000805</t>
+  </si>
+  <si>
+    <t>09:14:26</t>
+  </si>
+  <si>
+    <t>100000001806</t>
+  </si>
+  <si>
+    <t>000000000806</t>
+  </si>
+  <si>
+    <t>09:29:08</t>
+  </si>
+  <si>
+    <t>000000000807</t>
+  </si>
+  <si>
+    <t>10:45:16</t>
+  </si>
+  <si>
+    <t>100000001807</t>
+  </si>
+  <si>
+    <t>000000000808</t>
+  </si>
+  <si>
+    <t>13:50:47</t>
+  </si>
+  <si>
+    <t>100000001812</t>
+  </si>
+  <si>
+    <t>000000000809</t>
+  </si>
+  <si>
+    <t>TR006793474987</t>
+  </si>
+  <si>
+    <t>17:02:04</t>
+  </si>
+  <si>
+    <t>TR113926424027</t>
+  </si>
+  <si>
+    <t>100000001813</t>
+  </si>
+  <si>
+    <t>000000000810</t>
+  </si>
+  <si>
+    <t>TR516099066848</t>
+  </si>
+  <si>
+    <t>17:06:21</t>
+  </si>
+  <si>
+    <t>TR016499136692</t>
+  </si>
+  <si>
+    <t>100000001814</t>
+  </si>
+  <si>
+    <t>000000000811</t>
+  </si>
+  <si>
+    <t>TR573065031469</t>
+  </si>
+  <si>
+    <t>17:15:39</t>
+  </si>
+  <si>
+    <t>TR914522630319</t>
+  </si>
+  <si>
+    <t>100000001815</t>
+  </si>
+  <si>
+    <t>000000000812</t>
+  </si>
+  <si>
+    <t>TR596235419953</t>
+  </si>
+  <si>
+    <t>17:20:30</t>
+  </si>
+  <si>
+    <t>TR705769442423</t>
+  </si>
+  <si>
+    <t>100000001901</t>
+  </si>
+  <si>
+    <t>000000000901</t>
+  </si>
+  <si>
+    <t>TR813359901068</t>
+  </si>
+  <si>
+    <t>17:30:20</t>
+  </si>
+  <si>
+    <t>TR403969535106</t>
+  </si>
+  <si>
+    <t>100000001902</t>
+  </si>
+  <si>
+    <t>000000000902</t>
+  </si>
+  <si>
+    <t>TR946723720809</t>
+  </si>
+  <si>
+    <t>17:31:49</t>
+  </si>
+  <si>
+    <t>TR464098395223</t>
+  </si>
+  <si>
+    <t>100000001903</t>
+  </si>
+  <si>
+    <t>000000000903</t>
+  </si>
+  <si>
+    <t>TR642114311179</t>
+  </si>
+  <si>
+    <t>09:50:07</t>
+  </si>
+  <si>
+    <t>TR557983226417</t>
+  </si>
+  <si>
+    <t>100000001904</t>
+  </si>
+  <si>
+    <t>000000000904</t>
+  </si>
+  <si>
+    <t>TR525765711792</t>
+  </si>
+  <si>
+    <t>09:51:38</t>
+  </si>
+  <si>
+    <t>TR083928949773</t>
+  </si>
+  <si>
+    <t>100000001905</t>
+  </si>
+  <si>
+    <t>000000000905</t>
+  </si>
+  <si>
+    <t>TR427277083136</t>
+  </si>
+  <si>
+    <t>10:06:56</t>
+  </si>
+  <si>
+    <t>TR757873995896</t>
+  </si>
+  <si>
+    <t>100000001906</t>
+  </si>
+  <si>
+    <t>000000000906</t>
+  </si>
+  <si>
+    <t>TR005518317353</t>
+  </si>
+  <si>
+    <t>10:09:32</t>
+  </si>
+  <si>
+    <t>TR543967482716</t>
+  </si>
+  <si>
+    <t>100000001907</t>
+  </si>
+  <si>
+    <t>000000000907</t>
+  </si>
+  <si>
+    <t>TR557567849804</t>
+  </si>
+  <si>
+    <t>10:16:14</t>
+  </si>
+  <si>
+    <t>TR380376311760</t>
+  </si>
+  <si>
+    <t>100000001908</t>
+  </si>
+  <si>
+    <t>000000000908</t>
+  </si>
+  <si>
+    <t>TR355901007402</t>
+  </si>
+  <si>
+    <t>10:18:38</t>
+  </si>
+  <si>
+    <t>TR284565365756</t>
+  </si>
+  <si>
+    <t>100000001909</t>
+  </si>
+  <si>
+    <t>000000000909</t>
+  </si>
+  <si>
+    <t>TR827314161814</t>
+  </si>
+  <si>
+    <t>11:03:21</t>
+  </si>
+  <si>
+    <t>TR627011037283</t>
+  </si>
+  <si>
+    <t>100000002001</t>
+  </si>
+  <si>
+    <t>000000001001</t>
+  </si>
+  <si>
+    <t>TR393616683436</t>
+  </si>
+  <si>
+    <t>11:15:14</t>
+  </si>
+  <si>
+    <t>TR654561563292</t>
+  </si>
+  <si>
+    <t>100000002002</t>
+  </si>
+  <si>
+    <t>000000001002</t>
+  </si>
+  <si>
+    <t>TR146101582277</t>
+  </si>
+  <si>
+    <t>11:16:58</t>
+  </si>
+  <si>
+    <t>TR148294641719</t>
+  </si>
+  <si>
+    <t>100000002003</t>
+  </si>
+  <si>
+    <t>000000001003</t>
+  </si>
+  <si>
+    <t>TR589017040177</t>
+  </si>
+  <si>
+    <t>11:18:19</t>
+  </si>
+  <si>
+    <t>TR068948654067</t>
+  </si>
+  <si>
+    <t>100000002004</t>
+  </si>
+  <si>
+    <t>000000001004</t>
+  </si>
+  <si>
+    <t>TR120132864203</t>
+  </si>
+  <si>
+    <t>11:19:42</t>
+  </si>
+  <si>
+    <t>TR070272932524</t>
+  </si>
+  <si>
+    <t>100000002005</t>
+  </si>
+  <si>
+    <t>000000001005</t>
+  </si>
+  <si>
+    <t>TR062599536173</t>
+  </si>
+  <si>
+    <t>11:25:20</t>
+  </si>
+  <si>
+    <t>TR023096812122</t>
+  </si>
+  <si>
+    <t>100000002006</t>
+  </si>
+  <si>
+    <t>000000001006</t>
+  </si>
+  <si>
+    <t>TR245969884924</t>
+  </si>
+  <si>
+    <t>11:28:32</t>
+  </si>
+  <si>
+    <t>TR483531172725</t>
+  </si>
+  <si>
+    <t>100000002007</t>
+  </si>
+  <si>
+    <t>000000001007</t>
+  </si>
+  <si>
+    <t>TR086830084858</t>
+  </si>
+  <si>
+    <t>13:16:18</t>
+  </si>
+  <si>
+    <t>TR960547869609</t>
+  </si>
+  <si>
+    <t>100000002008</t>
+  </si>
+  <si>
+    <t>000000001008</t>
+  </si>
+  <si>
+    <t>TR968787677395</t>
+  </si>
+  <si>
+    <t>13:18:12</t>
+  </si>
+  <si>
+    <t>TR629881510779</t>
+  </si>
+  <si>
+    <t>100000002009</t>
+  </si>
+  <si>
+    <t>000000001009</t>
+  </si>
+  <si>
+    <t>TR375778949508</t>
+  </si>
+  <si>
+    <t>13:26:06</t>
+  </si>
+  <si>
+    <t>TR533240660737</t>
+  </si>
+  <si>
+    <t>100000002010</t>
+  </si>
+  <si>
+    <t>000000001010</t>
+  </si>
+  <si>
+    <t>TR295660669073</t>
+  </si>
+  <si>
+    <t>13:27:09</t>
+  </si>
+  <si>
+    <t>TR685176305192</t>
+  </si>
+  <si>
+    <t>100000002011</t>
+  </si>
+  <si>
+    <t>000000001011</t>
+  </si>
+  <si>
+    <t>TR330790520201</t>
+  </si>
+  <si>
+    <t>13:30:08</t>
+  </si>
+  <si>
+    <t>TR311443061995</t>
+  </si>
+  <si>
+    <t>100000002012</t>
+  </si>
+  <si>
+    <t>000000001012</t>
+  </si>
+  <si>
+    <t>TR131044239408</t>
+  </si>
+  <si>
+    <t>13:33:08</t>
+  </si>
+  <si>
+    <t>TR682693096744</t>
+  </si>
+  <si>
+    <t>100000002013</t>
+  </si>
+  <si>
+    <t>000000001013</t>
+  </si>
+  <si>
+    <t>TR362990433719</t>
+  </si>
+  <si>
+    <t>13:35:30</t>
+  </si>
+  <si>
+    <t>TR785853020443</t>
+  </si>
+  <si>
+    <t>100000002014</t>
+  </si>
+  <si>
+    <t>000000001014</t>
+  </si>
+  <si>
+    <t>13:39:52</t>
+  </si>
+  <si>
+    <t>100000002015</t>
+  </si>
+  <si>
+    <t>000000001015</t>
+  </si>
+  <si>
+    <t>TR551571909103</t>
+  </si>
+  <si>
+    <t>13:40:18</t>
+  </si>
+  <si>
+    <t>TR818890937510</t>
+  </si>
+  <si>
+    <t>100000002016</t>
+  </si>
+  <si>
+    <t>000000001016</t>
+  </si>
+  <si>
+    <t>TR140072922997</t>
+  </si>
+  <si>
+    <t>13:42:27</t>
+  </si>
+  <si>
+    <t>TR510978770347</t>
+  </si>
+  <si>
+    <t>100000002017</t>
+  </si>
+  <si>
+    <t>000000001017</t>
+  </si>
+  <si>
+    <t>TR077392577999</t>
+  </si>
+  <si>
+    <t>13:45:42</t>
+  </si>
+  <si>
+    <t>TR344780885406</t>
+  </si>
+  <si>
+    <t>100000002018</t>
+  </si>
+  <si>
+    <t>000000001018</t>
+  </si>
+  <si>
+    <t>TR234727114245</t>
+  </si>
+  <si>
+    <t>13:52:56</t>
+  </si>
+  <si>
+    <t>TR753219608889</t>
+  </si>
+  <si>
+    <t>100000002019</t>
+  </si>
+  <si>
+    <t>000000001019</t>
+  </si>
+  <si>
+    <t>TR706391567917</t>
+  </si>
+  <si>
+    <t>13:54:09</t>
+  </si>
+  <si>
+    <t>TR414813153844</t>
+  </si>
+  <si>
+    <t>100000002020</t>
+  </si>
+  <si>
+    <t>000000001020</t>
+  </si>
+  <si>
+    <t>TR086742129365</t>
+  </si>
+  <si>
+    <t>13:56:26</t>
+  </si>
+  <si>
+    <t>TR690155187756</t>
+  </si>
+  <si>
+    <t>100000002101</t>
+  </si>
+  <si>
+    <t>000000001101</t>
+  </si>
+  <si>
+    <t>TR873679605729</t>
+  </si>
+  <si>
+    <t>15:17:42</t>
+  </si>
+  <si>
+    <t>TR017224882823</t>
+  </si>
+  <si>
+    <t>000000001102</t>
+  </si>
+  <si>
+    <t>16:14:07</t>
+  </si>
+  <si>
+    <t>100000002201</t>
+  </si>
+  <si>
+    <t>TR328649424676</t>
+  </si>
+  <si>
+    <t>10:20:42</t>
+  </si>
+  <si>
+    <t>TR593334155947</t>
+  </si>
+  <si>
+    <t>100000002202</t>
+  </si>
+  <si>
+    <t>000000001202</t>
+  </si>
+  <si>
+    <t>TR794287374389</t>
+  </si>
+  <si>
+    <t>10:27:47</t>
+  </si>
+  <si>
+    <t>TR732833915169</t>
+  </si>
+  <si>
+    <t>100000002203</t>
+  </si>
+  <si>
+    <t>000000001203</t>
+  </si>
+  <si>
+    <t>TR082678928914</t>
+  </si>
+  <si>
+    <t>10:29:23</t>
+  </si>
+  <si>
+    <t>TR571788831625</t>
+  </si>
+  <si>
+    <t>100000002204</t>
+  </si>
+  <si>
+    <t>TR248779300425</t>
+  </si>
+  <si>
+    <t>10:36:52</t>
+  </si>
+  <si>
+    <t>TR356734425090</t>
+  </si>
+  <si>
+    <t>100000002205</t>
+  </si>
+  <si>
+    <t>000000001205</t>
+  </si>
+  <si>
+    <t>TR635027250633</t>
+  </si>
+  <si>
+    <t>10:44:18</t>
+  </si>
+  <si>
+    <t>TR500934793253</t>
+  </si>
+  <si>
+    <t>100000002206</t>
+  </si>
+  <si>
+    <t>000000001206</t>
+  </si>
+  <si>
+    <t>TR356525939840</t>
+  </si>
+  <si>
+    <t>10:45:25</t>
+  </si>
+  <si>
+    <t>TR103190668048</t>
+  </si>
+  <si>
+    <t>100000002207</t>
+  </si>
+  <si>
+    <t>000000001207</t>
+  </si>
+  <si>
+    <t>TR763780295917</t>
+  </si>
+  <si>
+    <t>10:53:27</t>
+  </si>
+  <si>
+    <t>TR460266324862</t>
+  </si>
+  <si>
+    <t>100000002208</t>
+  </si>
+  <si>
+    <t>000000001208</t>
+  </si>
+  <si>
+    <t>TR414282306043</t>
+  </si>
+  <si>
+    <t>10:54:42</t>
+  </si>
+  <si>
+    <t>TR260743559270</t>
+  </si>
+  <si>
+    <t>100000002209</t>
+  </si>
+  <si>
+    <t>000000001209</t>
+  </si>
+  <si>
+    <t>TR115144031825</t>
+  </si>
+  <si>
+    <t>11:18:16</t>
+  </si>
+  <si>
+    <t>TR805501821863</t>
+  </si>
+  <si>
+    <t>100000002210</t>
+  </si>
+  <si>
+    <t>000000001210</t>
+  </si>
+  <si>
+    <t>TR698893852830</t>
+  </si>
+  <si>
+    <t>11:22:07</t>
+  </si>
+  <si>
+    <t>TR522632648356</t>
+  </si>
+  <si>
+    <t>100000002211</t>
+  </si>
+  <si>
+    <t>000000001211</t>
+  </si>
+  <si>
+    <t>TR715099544255</t>
+  </si>
+  <si>
+    <t>11:23:13</t>
+  </si>
+  <si>
+    <t>TR932937883135</t>
+  </si>
+  <si>
+    <t>100000002212</t>
+  </si>
+  <si>
+    <t>000000001212</t>
+  </si>
+  <si>
+    <t>TR451123306480</t>
+  </si>
+  <si>
+    <t>13:16:24</t>
+  </si>
+  <si>
+    <t>TR242522829852</t>
+  </si>
+  <si>
+    <t>100000002213</t>
+  </si>
+  <si>
+    <t>000000001213</t>
+  </si>
+  <si>
+    <t>TR327411157106</t>
+  </si>
+  <si>
+    <t>13:17:43</t>
+  </si>
+  <si>
+    <t>TR104084884137</t>
+  </si>
+  <si>
+    <t>100000002214</t>
+  </si>
+  <si>
+    <t>000000001214</t>
+  </si>
+  <si>
+    <t>TR421286283289</t>
+  </si>
+  <si>
+    <t>13:19:57</t>
+  </si>
+  <si>
+    <t>TR966936387666</t>
+  </si>
+  <si>
+    <t>100000002215</t>
+  </si>
+  <si>
+    <t>000000001215</t>
+  </si>
+  <si>
+    <t>TR554492776102</t>
+  </si>
+  <si>
+    <t>13:25:27</t>
+  </si>
+  <si>
+    <t>TR644647252843</t>
+  </si>
+  <si>
+    <t>100000002216</t>
+  </si>
+  <si>
+    <t>000000001216</t>
+  </si>
+  <si>
+    <t>TR153462173658</t>
+  </si>
+  <si>
+    <t>13:31:09</t>
+  </si>
+  <si>
+    <t>TR584525663514</t>
+  </si>
+  <si>
+    <t>100000002217</t>
+  </si>
+  <si>
+    <t>000000001217</t>
+  </si>
+  <si>
+    <t>TR251606264026</t>
+  </si>
+  <si>
+    <t>13:34:21</t>
+  </si>
+  <si>
+    <t>TR792895742141</t>
+  </si>
+  <si>
+    <t>100000002218</t>
+  </si>
+  <si>
+    <t>000000001218</t>
+  </si>
+  <si>
+    <t>TR575210570732</t>
+  </si>
+  <si>
+    <t>13:41:28</t>
+  </si>
+  <si>
+    <t>TR589935350620</t>
+  </si>
+  <si>
+    <t>100000002219</t>
+  </si>
+  <si>
+    <t>000000001219</t>
+  </si>
+  <si>
+    <t>TR441160929964</t>
+  </si>
+  <si>
+    <t>13:43:36</t>
+  </si>
+  <si>
+    <t>TR608036731707</t>
+  </si>
+  <si>
+    <t>100000002220</t>
+  </si>
+  <si>
+    <t>000000001220</t>
+  </si>
+  <si>
+    <t>TR488793513801</t>
+  </si>
+  <si>
+    <t>13:44:44</t>
+  </si>
+  <si>
+    <t>TR950168178126</t>
+  </si>
+  <si>
+    <t>100000002221</t>
+  </si>
+  <si>
+    <t>000000001221</t>
+  </si>
+  <si>
+    <t>TR321328319661</t>
+  </si>
+  <si>
+    <t>13:46:20</t>
+  </si>
+  <si>
+    <t>TR148123772430</t>
+  </si>
+  <si>
+    <t>100000002222</t>
+  </si>
+  <si>
+    <t>000000001222</t>
+  </si>
+  <si>
+    <t>TR869798736835</t>
+  </si>
+  <si>
+    <t>13:50:15</t>
+  </si>
+  <si>
+    <t>TR022959846549</t>
+  </si>
+  <si>
+    <t>100000002301</t>
+  </si>
+  <si>
+    <t>000000001301</t>
+  </si>
+  <si>
+    <t>TR427970918827</t>
+  </si>
+  <si>
+    <t>13:53:23</t>
+  </si>
+  <si>
+    <t>TR636504619205</t>
+  </si>
+  <si>
+    <t>100000002302</t>
+  </si>
+  <si>
+    <t>000000001302</t>
+  </si>
+  <si>
+    <t>TR750554473027</t>
+  </si>
+  <si>
+    <t>13:57:33</t>
+  </si>
+  <si>
+    <t>TR465341902478</t>
+  </si>
+  <si>
+    <t>100000002303</t>
+  </si>
+  <si>
+    <t>000000001303</t>
+  </si>
+  <si>
+    <t>20191125</t>
+  </si>
+  <si>
+    <t>13:59:19</t>
+  </si>
+  <si>
+    <t>100000002304</t>
+  </si>
+  <si>
+    <t>000000001304</t>
+  </si>
+  <si>
+    <t>TR330046521772</t>
+  </si>
+  <si>
+    <t>14:03:14</t>
+  </si>
+  <si>
+    <t>TR618451969830</t>
+  </si>
+  <si>
+    <t>100000002305</t>
+  </si>
+  <si>
+    <t>000000001305</t>
+  </si>
+  <si>
+    <t>TR611871819342</t>
+  </si>
+  <si>
+    <t>14:13:35</t>
+  </si>
+  <si>
+    <t>TR124412193064</t>
+  </si>
+  <si>
+    <t>100000002306</t>
+  </si>
+  <si>
+    <t>000000001306</t>
+  </si>
+  <si>
+    <t>TR553532433084</t>
+  </si>
+  <si>
+    <t>14:15:13</t>
+  </si>
+  <si>
+    <t>TR093090398174</t>
+  </si>
+  <si>
+    <t>100000002307</t>
+  </si>
+  <si>
+    <t>000000001307</t>
+  </si>
+  <si>
+    <t>TR359352325358</t>
+  </si>
+  <si>
+    <t>14:34:18</t>
+  </si>
+  <si>
+    <t>TR418274138019</t>
+  </si>
+  <si>
+    <t>100000002308</t>
+  </si>
+  <si>
+    <t>000000001308</t>
+  </si>
+  <si>
+    <t>TR345122479743</t>
+  </si>
+  <si>
+    <t>14:36:26</t>
+  </si>
+  <si>
+    <t>TR827871697700</t>
+  </si>
+  <si>
+    <t>100000002401</t>
+  </si>
+  <si>
+    <t>000000001401</t>
+  </si>
+  <si>
+    <t>TR925301746197</t>
+  </si>
+  <si>
+    <t>15:35:27</t>
+  </si>
+  <si>
+    <t>TR612210889850</t>
+  </si>
+  <si>
+    <t>100000002402</t>
+  </si>
+  <si>
+    <t>000000001402</t>
+  </si>
+  <si>
+    <t>TR092665981493</t>
+  </si>
+  <si>
+    <t>16:57:54</t>
+  </si>
+  <si>
+    <t>TR715534349025</t>
+  </si>
+  <si>
+    <t>setp_id</t>
+  </si>
+  <si>
+    <t>setp id</t>
+  </si>
+  <si>
+    <t>run_count</t>
+  </si>
+  <si>
+    <t>run count</t>
+  </si>
+  <si>
+    <t>retry_run_count</t>
+  </si>
+  <si>
+    <t>retry run count</t>
+  </si>
+  <si>
+    <t>request_message</t>
+  </si>
+  <si>
+    <t>request message</t>
+  </si>
+  <si>
+    <t>response_message</t>
+  </si>
+  <si>
+    <t>response message</t>
+  </si>
+  <si>
+    <t>run_mode</t>
+  </si>
+  <si>
+    <t>run mode</t>
+  </si>
+  <si>
+    <t>task_id</t>
+  </si>
+  <si>
+    <t>task id</t>
   </si>
 </sst>
 </file>
@@ -88,7 +2596,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +2647,11 @@
       <u val="double"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="54"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +2674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +2695,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -552,13 +3071,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink location="0006!A1" ref="D8"/>
-    <hyperlink location="0006!A1" ref="D8"/>
-    <hyperlink location="0006!A1" ref="D8"/>
-    <hyperlink location="0006!A1" ref="D8"/>
-    <hyperlink location="0006!A1" ref="D8"/>
-    <hyperlink location="0006!A1" ref="D8"/>
-    <hyperlink location="0006!A1" ref="D8"/>
+    <hyperlink location="0000!B4" ref="D2"/>
+    <hyperlink location="0001!B4" ref="D3"/>
+    <hyperlink location="0002!B4" ref="D4"/>
+    <hyperlink location="0003!B4" ref="D5"/>
+    <hyperlink location="0004!B4" ref="D6"/>
+    <hyperlink location="0005!B4" ref="D7"/>
+    <hyperlink location="0006!B4" ref="D8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -566,7 +3085,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
@@ -637,23 +3156,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>851</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="AC1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:29" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>852</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="AC2" s="4" t="s">
         <v>0</v>
@@ -664,6 +3241,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink location="00!D8" ref="A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -774,7 +3354,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
@@ -845,16 +3425,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="AC1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:29" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -872,13 +3475,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink location="00!D2" ref="A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
@@ -949,18 +3555,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="AC1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:29" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -976,13 +3615,3184 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink location="00!D3" ref="A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC3"/>
+  <dimension ref="A1:AC103"/>
+  <sheetViews>
+    <sheetView tabSelected="false" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="3.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="16.25" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.58203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="17.4140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="16.9140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="20.4140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.4140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="13.25" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="15.58203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="13.6640625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.4140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="24.08203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="20.9140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="9.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="29.75" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="25.25" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.5" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="7.9140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="10.1640625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.75" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="15.4140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.75" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="11.08203125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="13.9140625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="1" width="74.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="1" width="11.9140625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="17.25" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="16.1640625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="16.58203125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="14.08203125" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="17.83203125" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="19.58203125" collapsed="true"/>
+    <col min="57" max="16384" style="1" width="8.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="AC1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="AC2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink location="00!D4" ref="A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
@@ -1053,21 +6863,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>373</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="AC1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:29" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>374</v>
+      </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -1080,13 +6938,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink location="00!D5" ref="A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
@@ -1157,19 +7018,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>379</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="AC1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:29" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -1184,13 +7083,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink location="00!D6" ref="A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC3"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
@@ -1201,19 +7103,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="19.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="6.1640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.4140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="26.58203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="15.75" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.58203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.25" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.25" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.4140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="10.58203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="16.25" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="3.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="43.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="43.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="43.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.33203125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
@@ -1261,23 +7163,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="AC1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:29" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="AC2" s="4" t="s">
         <v>0</v>
@@ -1286,112 +7246,3353 @@
     <row r="3" spans="2:29" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
       <c r="X3" s="4"/>
     </row>
+    <row r="4">
+      <c r="B4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC3"/>
-  <sheetViews>
-    <sheetView tabSelected="false" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="19.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="6.1640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.4140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="26.58203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="15.75" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.58203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.25" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.25" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="9.4140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="10.58203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="16.25" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.58203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="17.4140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="16.9140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="20.4140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.4140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="10.83203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="14.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="13.25" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="15.58203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="13.6640625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.4140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="24.08203125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="20.9140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="9.5" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="29.75" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="25.25" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.5" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="7.9140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="10.1640625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="14.5" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.75" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="15.4140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.75" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="11.08203125" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="13.9140625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="1" width="74.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="1" width="11.9140625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="17.25" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="16.1640625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="16.58203125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="14.08203125" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="17.83203125" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="19.58203125" collapsed="true"/>
-    <col min="57" max="16384" style="1" width="8.6640625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="X1" s="2"/>
-      <c r="AC1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:29" s="4" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="AC2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
-      <c r="X3" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink location="00!D7" ref="A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>